--- a/pred_ohlcv/54_21/2020-01-23 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 BSV ohlcv.xlsx
@@ -1796,7 +1796,7 @@
         <v>523.9284858199999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>511.1435858199999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>517.1768858199999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>478.21348582</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>478.21348582</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>500.79138582</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>407.2321374600002</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>380.6308237800002</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>386.9936356700002</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-123.3616850999998</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-123.0716850999998</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-157.6172850999998</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-109.6439850999998</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-109.6439850999998</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-115.6562121699998</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-115.6562121699998</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-123.4567392399998</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>46.2387049400002</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>59.4005049400002</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>72.64370494000021</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>139.4334194000002</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>412.5269605600002</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>412.5269605600002</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>406.7791095000002</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>481.6670455200002</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>499.3116455200002</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>499.3116455200002</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>460.4055455200002</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>358.5483455200002</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>436.0043455200004</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>462.3371455200004</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>462.3371455200004</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>478.4371455200004</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>478.4322455200004</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>478.4322455200004</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>471.6373455200004</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>510.2471455200004</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>510.2471455200004</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>481.1488455200004</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>548.5682455200003</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>547.5682455200003</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>4578.31281205</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>4481.876512049999</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>4575.806949749999</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>4756.777929149999</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>4557.462508549999</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>4563.213408549999</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>4611.192608549999</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>4611.192608549999</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>4693.390808549999</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>4382.842808549999</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>4151.830508549999</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>4127.614708549999</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>4045.654508549999</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>4219.653834839999</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>4260.726134839999</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>4225.498434839998</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>4212.808114909998</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>4212.808114909998</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>4153.053414909998</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>4178.696814909998</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>4248.790114909998</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>4248.790114909998</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>4248.790114909998</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>4835.639014909998</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>4775.585414909998</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>4812.412614909998</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>4652.277914909998</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>4618.830114909998</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>4618.830114909998</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>4636.072314909998</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>4636.072314909998</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>4636.072314909998</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>4636.072314909998</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>4844.445514909998</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>4742.010114909997</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>4768.064114909997</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>4793.170914909997</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>4662.737372199997</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>4642.992472199997</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>4549.308372199996</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>4437.789672199996</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>4356.094906739995</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>1927.686726429996</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>1935.735826429996</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>1958.808126979996</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 BSV ohlcv.xlsx
@@ -1796,7 +1796,7 @@
         <v>523.9284858199999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>511.1435858199999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>517.1768858199999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>478.21348582</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>478.21348582</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>500.79138582</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>407.2321374600002</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>380.6308237800002</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>159.1696149000002</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-25.05968509999977</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-123.3616850999998</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-123.0716850999998</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-157.6172850999998</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-109.6439850999998</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-109.6439850999998</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-115.6562121699998</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-115.6562121699998</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-123.4567392399998</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>46.2387049400002</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>59.4005049400002</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>72.64370494000021</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>139.4334194000002</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>412.5269605600002</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>412.5269605600002</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>406.7791095000002</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>481.6670455200002</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>499.3116455200002</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>499.3116455200002</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>460.4055455200002</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>358.5483455200002</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>436.0043455200004</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>462.3371455200004</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>462.3371455200004</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>478.4371455200004</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>478.4322455200004</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>478.4322455200004</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>471.6373455200004</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>510.2471455200004</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>510.2471455200004</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>481.1488455200004</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>548.5682455200003</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>547.5682455200003</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>547.5696455200003</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>542.9739455200004</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>542.9816454900003</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>545.5157858600004</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>644.6154319700004</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>644.6154319700004</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>638.9041319700003</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>583.3101327700003</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>482.3204459800002</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>347.8356459800002</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>227.1263459800002</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>183.8248459800002</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>195.8496459800002</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>187.5240459800002</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>211.6340459800002</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>193.7975459800002</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>212.4072459800002</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>204.5125459800002</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>128.2590459800002</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>149.9617459800002</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>95.24504598000021</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>84.76124598000021</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>84.76124598000021</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>84.76124598000021</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>104.4858459800002</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>118.1145459800002</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>130.3591459800002</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>122.5351459800002</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>122.5351459800002</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>124.3835459800002</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>112.1816459800002</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>119.3877459800002</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>67.96574598000021</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>67.8243459800002</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>70.5418459800002</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>71.6606731800002</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>163.0084459800002</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>281.0893195200002</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>281.0893195200002</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>233.6996278300002</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>237.3133278300002</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>166.5160472500002</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>215.6766472500002</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>158.2627472500002</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>158.2627472500002</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>194.6764472500003</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>472.3524472500002</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>19.62080617000008</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>12.47500617000008</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>12.66901947000008</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>12.66901947000008</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>1.127619470000079</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-22.22028052999992</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-31.99698052999992</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-104.6170805299999</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-84.5766805299999</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-84.5766805299999</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-84.5766805299999</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-84.6060805299999</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-90.82338052999989</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-90.82338052999989</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-90.0944805299999</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-90.0944805299999</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-92.76338052999989</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-46.66038052999989</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-46.66038052999989</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>66.4230194700001</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>66.4230194700001</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>66.4230194700001</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>250.6044194700001</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>250.6044194700001</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>428.4161194700001</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>569.4888183200001</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>605.2933983200001</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>3551.01381402</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>3562.94701402</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>3562.93641402</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>3532.70931402</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>3515.35272299</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>3515.50552299</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>3508.00732299</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>3522.37072299</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>3530.19792299</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>3712.09933196</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>3735.31203196</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>3731.35759764</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>3731.35759764</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>3704.48779764</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>3733.68359764</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>3733.68359764</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>3734.59189764</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>3744.41869764</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>4295.03051205</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>4578.31281205</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>4481.876512049999</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>4575.806949749999</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>4756.777929149999</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>4557.462508549999</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>4563.213408549999</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>4611.192608549999</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>4611.192608549999</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>4693.390808549999</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>4382.842808549999</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>4151.830508549999</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>4127.614708549999</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>4045.654508549999</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>4219.653834839999</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>4260.726134839999</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>4225.498434839998</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>4212.808114909998</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>4212.808114909998</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>4153.053414909998</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>4178.696814909998</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>4248.790114909998</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>4248.790114909998</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>4248.790114909998</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>4835.639014909998</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>4775.585414909998</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>4812.412614909998</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>4652.277914909998</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>4618.830114909998</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>4618.830114909998</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>4636.072314909998</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>4636.072314909998</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>4636.072314909998</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>4636.072314909998</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>4844.445514909998</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>4742.010114909997</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>4768.064114909997</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>4793.170914909997</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>4662.737372199997</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>4642.992472199997</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>1927.686726429996</v>
       </c>
       <c r="H1092">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>1935.735826429996</v>
       </c>
       <c r="H1093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>1958.808126979996</v>
       </c>
       <c r="H1094">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
